--- a/Service.Catalog/wwwroot/layout/excel/promotion/PromotionFormulario.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/promotion/PromotionFormulario.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResposAxsis\API\Service.Catalog\wwwroot\layout\excel\promotion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ResposAxsis\API\Service.Catalog\wwwroot\layout\excel\promotion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560CF9A6-2486-45EA-B6E1-E17761FF8125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotion" sheetId="1" r:id="rId1"/>
@@ -177,9 +178,6 @@
     <t>{{Promotion.FechaFinal}}</t>
   </si>
   <si>
-    <t>{{Promotion.IdListaPrecios}}</t>
-  </si>
-  <si>
     <t>{{Promotion.Lealtad}}</t>
   </si>
   <si>
@@ -232,12 +230,15 @@
   </si>
   <si>
     <t>{{item.PrecioFinal}}</t>
+  </si>
+  <si>
+    <t>{{Promotion.lista}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -716,11 +717,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +768,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="1" t="s">
@@ -779,7 +780,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -815,7 +816,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -968,13 +969,13 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>24</v>
@@ -983,52 +984,52 @@
         <v>25</v>
       </c>
       <c r="I21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" t="s">
         <v>41</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>42</v>
-      </c>
-      <c r="K21" t="s">
-        <v>43</v>
       </c>
       <c r="L21" t="s">
         <v>6</v>
       </c>
       <c r="M21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" t="s">
         <v>44</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>45</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>46</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>47</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>48</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>49</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>50</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>51</v>
-      </c>
-      <c r="U21" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +1057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Service.Catalog/wwwroot/layout/excel/promotion/PromotionFormulario.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/promotion/PromotionFormulario.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ResposAxsis\API\Service.Catalog\wwwroot\layout\excel\promotion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDanielGonzalezAl\Documents\Projects\API\Service.Catalog\wwwroot\layout\excel\promotion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560CF9A6-2486-45EA-B6E1-E17761FF8125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98421C8-0EF6-4774-A7D0-DCC3610BAEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotion" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Dias">Promotion!$G$4:$G$5</definedName>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Clave</t>
   </si>
@@ -136,24 +135,9 @@
     <t>Sucursales</t>
   </si>
   <si>
-    <t>clave</t>
-  </si>
-  <si>
-    <t>Desc %</t>
-  </si>
-  <si>
-    <t>Desc Cantidad</t>
-  </si>
-  <si>
     <t>Precio Final</t>
   </si>
   <si>
-    <t>fecha inicio</t>
-  </si>
-  <si>
-    <t>fecha final</t>
-  </si>
-  <si>
     <t>Precio</t>
   </si>
   <si>
@@ -233,6 +217,18 @@
   </si>
   <si>
     <t>{{Promotion.lista}}</t>
+  </si>
+  <si>
+    <t>Desc. %</t>
+  </si>
+  <si>
+    <t>Desc. Cantidad</t>
+  </si>
+  <si>
+    <t>Fecha inicio</t>
+  </si>
+  <si>
+    <t>Fecha final</t>
   </si>
 </sst>
 </file>
@@ -718,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,14 +757,14 @@
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="1" t="s">
@@ -780,7 +776,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -788,14 +784,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F5" s="14"/>
     </row>
@@ -809,14 +805,14 @@
         <v>7</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -830,7 +826,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9" s="14"/>
       <c r="E9" s="10"/>
@@ -847,7 +843,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11" s="14"/>
       <c r="F11" s="8"/>
@@ -862,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" s="14"/>
     </row>
@@ -919,13 +915,19 @@
         <v>6</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>23</v>
+        <v>51</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>4</v>
@@ -934,16 +936,16 @@
         <v>12</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>14</v>
@@ -969,68 +971,65 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L21" t="s">
         <v>6</v>
       </c>
       <c r="M21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" t="s">
         <v>43</v>
       </c>
-      <c r="N21" t="s">
+      <c r="S21" t="s">
         <v>44</v>
       </c>
-      <c r="O21" t="s">
+      <c r="T21" t="s">
         <v>45</v>
       </c>
-      <c r="P21" t="s">
+      <c r="U21" t="s">
         <v>46</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>47</v>
-      </c>
-      <c r="R21" t="s">
-        <v>48</v>
-      </c>
-      <c r="S21" t="s">
-        <v>49</v>
-      </c>
-      <c r="T21" t="s">
-        <v>50</v>
-      </c>
-      <c r="U21" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" t="s">
-        <v>53</v>
-      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1054,16 +1053,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Service.Catalog/wwwroot/layout/excel/promotion/PromotionFormulario.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/promotion/PromotionFormulario.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ResposAxsis\API\Service.Catalog\wwwroot\layout\excel\promotion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560CF9A6-2486-45EA-B6E1-E17761FF8125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ECEE14-5243-444F-931A-A23A0215A3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Promotion" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Dias">Promotion!$G$4:$G$5</definedName>
@@ -313,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -324,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -334,19 +333,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -724,58 +718,58 @@
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="30.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.26953125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" customWidth="1"/>
+    <col min="11" max="11" width="26.453125" customWidth="1"/>
+    <col min="12" max="12" width="18.1796875" customWidth="1"/>
+    <col min="13" max="13" width="18.7265625" customWidth="1"/>
+    <col min="14" max="14" width="18.453125" customWidth="1"/>
+    <col min="15" max="15" width="17.54296875" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.54296875" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
@@ -783,138 +777,137 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="E9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="E9" s="8"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="F11" s="8"/>
+      <c r="C11" s="11"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E16" s="2"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -967,7 +960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>37</v>
       </c>
@@ -1023,7 +1016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="E22" s="2"/>
       <c r="G22" t="s">
         <v>38</v>
@@ -1054,16 +1047,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>